--- a/config_4.6/item_config.xlsx
+++ b/config_4.6/item_config.xlsx
@@ -4046,15 +4046,15 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>积分</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>用于参加福气达人排行榜</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>com_award_icon_jf2</t>
+    <t>com_award_icon_f</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>福气</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4641,7 +4641,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A312" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F322" sqref="F322"/>
+      <selection pane="bottomLeft" activeCell="I322" sqref="I322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15555,7 +15555,7 @@
         <v>1</v>
       </c>
       <c r="F322" s="5" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G322" s="2">
         <v>0</v>
@@ -15564,10 +15564,10 @@
         <v>1</v>
       </c>
       <c r="I322" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="J322" s="5" t="s">
         <v>1057</v>
-      </c>
-      <c r="J322" s="5" t="s">
-        <v>1058</v>
       </c>
     </row>
   </sheetData>
